--- a/biology/Botanique/Mélampyre/Mélampyre.xlsx
+++ b/biology/Botanique/Mélampyre/Mélampyre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre</t>
+          <t>Mélampyre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melampyrum
 Melampyrum (les mélampyres) est un genre de plantes qui comprend une trentaine d'espèces.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre</t>
+          <t>Mélampyre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Classification
-En classification linnéenne, les mélampyres étaient dans la famille des Scrofulariacées.
-En classification phylogénétique APG, ils ont été déplacés dans la famille des Orobanchacées.
-Listes d'espèces
-Selon NCBI  (6 août 2010)[1] :
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification linnéenne, les mélampyres étaient dans la famille des Scrofulariacées.
+En classification phylogénétique APG, ils ont été déplacés dans la famille des Orobanchacées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mélampyre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lampyre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Listes d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 août 2010) :
 Melampyrum arvense - mélampyre des champs
 Melampyrum carstiense
 Melampyrum cristatum - mélampyre à crête
@@ -532,9 +583,9 @@
 Melampyrum saxosum
 Melampyrum sylvaticum - mélampyre des forêts
 Melampyrum velebiticum
-Selon ITIS      (20 octobre 2017)[2] :
+Selon ITIS      (20 octobre 2017) :
 Melampyrum lineare Desr.
-Selon BioLib                    (20 octobre 2017)[3] :
+Selon BioLib                    (20 octobre 2017) :
 Melampyrum arvense L. 1753 - mélampyre des champs
 Melampyrum barbatum Waldst. &amp; Kit. ex Willd.
 Melampyrum bohemicum A. Kern.
